--- a/Data Generation/Rabbis.xlsx
+++ b/Data Generation/Rabbis.xlsx
@@ -14,29 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>DateOfBirth</t>
-  </si>
-  <si>
-    <t>BankAccountNum</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Havaad Haleumi 21, Jerusalem</t>
   </si>
   <si>
-    <t>RAVID</t>
-  </si>
-  <si>
     <t>R. Ezra Dasht</t>
   </si>
   <si>
@@ -61,16 +43,10 @@
     <t>R. Mark Zuckerberg</t>
   </si>
   <si>
-    <t>026785146</t>
-  </si>
-  <si>
     <t>34 Rimon, Efrat</t>
   </si>
   <si>
     <t>0514937821</t>
-  </si>
-  <si>
-    <t>234965823</t>
   </si>
   <si>
     <t>R. Yankel Mendelovitch</t>
@@ -118,13 +94,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,139 +406,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="4">
+        <v>205465212</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
+      <c r="E1" s="1">
+        <v>27795</v>
+      </c>
+      <c r="F1" s="4">
+        <v>31651164825</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>205465212</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="A2" s="4">
+        <v>258659456</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1">
-        <v>27795</v>
-      </c>
-      <c r="F2">
-        <v>31651164825</v>
+        <v>32119</v>
+      </c>
+      <c r="F2" s="4">
+        <v>31762854658</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>258659456</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="4">
+        <v>154126548</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1">
-        <v>32119</v>
-      </c>
-      <c r="F3">
-        <v>31762854658</v>
+        <v>19734</v>
+      </c>
+      <c r="F3" s="4">
+        <v>10536976551</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>154126548</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
+      <c r="A4" s="4">
+        <v>126785146</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
-        <v>19734</v>
-      </c>
-      <c r="F4">
-        <v>10536976551</v>
+        <v>30805</v>
+      </c>
+      <c r="F4" s="4">
+        <v>65546516515</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="4">
+        <v>234965823</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1">
-        <v>30805</v>
-      </c>
-      <c r="F5">
-        <v>65546516515</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6">
+      <c r="F5" s="4">
         <v>56161239564</v>
       </c>
     </row>
